--- a/UntukTesting.xlsx
+++ b/UntukTesting.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\KPdiBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\keprakdibi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9551,7 +9551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
